--- a/teste/Caso de Teste Registrar Entrada.xlsx
+++ b/teste/Caso de Teste Registrar Entrada.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
-    <sheet name="Subfluxo 1" sheetId="16" r:id="rId2"/>
+    <sheet name="Registrar Entrada-FP" sheetId="16" r:id="rId2"/>
     <sheet name="Subfluxo 1-FA1" sheetId="19" r:id="rId3"/>
+    <sheet name="Subfluxo2-FA1" sheetId="20" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Subfluxo 1'!$B$1:$T$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Subfluxo 1'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Registrar Entrada-FP'!$B$1:$T$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Registrar Entrada-FP'!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>CAMPO</t>
   </si>
@@ -73,9 +74,6 @@
     <t>&lt;versão 1.0&gt;</t>
   </si>
   <si>
-    <t>Senha</t>
-  </si>
-  <si>
     <t>Agile Parking</t>
   </si>
   <si>
@@ -83,12 +81,6 @@
   </si>
   <si>
     <t>CT003</t>
-  </si>
-  <si>
-    <t>Selecionar confirmação</t>
-  </si>
-  <si>
-    <t>Selecionar em Confirmar</t>
   </si>
   <si>
     <t>Nome</t>
@@ -100,58 +92,76 @@
     <t>Valdeneir Wendell</t>
   </si>
   <si>
-    <t>Tela Principal &gt; Manter Cadastro &gt; Adicionar um Cliente</t>
-  </si>
-  <si>
-    <t>Testar as funcionalidades cadastrar um novo cliente</t>
-  </si>
-  <si>
-    <t>Abertura da tela Adicionar um Cliente</t>
-  </si>
-  <si>
     <t>Estar logado no sistema</t>
-  </si>
-  <si>
-    <t>Selecionar a opção Adicionar um Cliente</t>
-  </si>
-  <si>
-    <t>O sistema abre uma interface com os campos que serão preenchidos e mostra a opção de Adicionar, que será selecionada depois que o ator preencher todos os campos</t>
-  </si>
-  <si>
-    <t>Preencher dados do cliente</t>
-  </si>
-  <si>
-    <t>O ator preenche todos os campos necessários para o cadastro e seleciona em Adicionar</t>
-  </si>
-  <si>
-    <t>O sistema mostra todos os dados preenchidos e mostra duas opções: Confirmar ou Voltar</t>
-  </si>
-  <si>
-    <t>O sistema gera um id para o cliente. O Cliente é adicionado ao sistema</t>
   </si>
   <si>
     <t>Placa</t>
   </si>
   <si>
-    <t>Veiculo</t>
+    <t>Tela Principal &gt; Registrar Entrada</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Testar as funcionalidades para registrar a entrada de clientes no estacionamento.</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>Abertura da tela Registrar Entrada</t>
   </si>
   <si>
-    <t>Selecionar Voltar</t>
+    <t>Selecionar a opção registrar entrada.</t>
   </si>
   <si>
-    <t>Selecionar em Voltar</t>
+    <t>O sistema oferece a interface de entrada de veiculos.</t>
   </si>
   <si>
-    <t>O sistema retorna ao passo 2 do subfluxo Adicionar um Cliente</t>
+    <t>Buscar placa de veiculo</t>
   </si>
   <si>
-    <t>Testar as funcionalidades de Cadastrar um Cliente</t>
+    <t>Selecionar confirmação de registro de entrada do cliente</t>
+  </si>
+  <si>
+    <t>O sistema confirma o registro da entrada do veiculo e imprime um comprovante</t>
+  </si>
+  <si>
+    <t>Tela Principal &gt; Registrar Entrada &gt; Registra entrada de não cliente</t>
+  </si>
+  <si>
+    <t>Testar as funcionalidades do subfluxo registrar entrada de não cliente</t>
+  </si>
+  <si>
+    <t>O sistema registra a entrada, retorna uma tela de comprovante e solicita que o ator faça a impressão deste comprovante</t>
+  </si>
+  <si>
+    <t>Imprimir comprovante</t>
+  </si>
+  <si>
+    <t>O ator seleciona a opção de impressão</t>
+  </si>
+  <si>
+    <t>O sistema imprime o comprovante</t>
+  </si>
+  <si>
+    <t>O ator preenche o campo "Placa do Veiculo" e seleciona em "Consultar"</t>
+  </si>
+  <si>
+    <t>O sistema verifica pela placa do veiculo se o cliente está cadastrado e informa na tela</t>
+  </si>
+  <si>
+    <t>Após verificar os dados do cliente o ator seleciona em "Confirmar Registro"</t>
+  </si>
+  <si>
+    <t>Confirmar registro</t>
+  </si>
+  <si>
+    <t>Selecionar a opção "Confirmar Registro"</t>
+  </si>
+  <si>
+    <t>Adicionar Cliente</t>
+  </si>
+  <si>
+    <t>Selecionar a opção Adicionar Cliente</t>
+  </si>
+  <si>
+    <t>O sistema passa a executar o subfluxo Adicionar Cliente do caso de uso Manter Cadastro de Clientes</t>
   </si>
 </sst>
 </file>
@@ -928,7 +938,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1079,87 +1089,6 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1169,61 +1098,13 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1266,31 +1147,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1301,24 +1158,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="44" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,12 +1165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,6 +1184,204 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1882,11 +1913,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
       <c r="J13" s="8"/>
@@ -1895,9 +1926,9 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="14"/>
       <c r="I14" s="4"/>
       <c r="J14" s="8"/>
@@ -1917,11 +1948,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="67" t="s">
-        <v>18</v>
+      <c r="E16" s="110" t="s">
+        <v>17</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="14"/>
       <c r="I16" s="4"/>
       <c r="J16" s="8"/>
@@ -1930,9 +1961,9 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="14"/>
       <c r="I17" s="4"/>
       <c r="J17" s="8"/>
@@ -1980,7 +2011,7 @@
       <c r="D21" s="13"/>
       <c r="E21" s="18"/>
       <c r="F21" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="14"/>
@@ -1993,7 +2024,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="18"/>
       <c r="F22" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="14"/>
@@ -2162,7 +2193,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:B16"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2190,33 +2221,33 @@
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>18</v>
+      <c r="B1" s="120" t="s">
+        <v>17</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="109" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="113"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
       <c r="W1" s="32"/>
@@ -2446,41 +2477,33 @@
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>26</v>
+      <c r="B2" s="123" t="s">
+        <v>25</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="80" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="80" t="s">
-        <v>36</v>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="128" t="s">
+        <v>20</v>
       </c>
-      <c r="I2" s="80" t="s">
-        <v>37</v>
+      <c r="O2" s="128" t="s">
+        <v>21</v>
       </c>
-      <c r="J2" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="117"/>
       <c r="U2" s="32"/>
       <c r="V2" s="32"/>
       <c r="W2" s="32"/>
@@ -2711,27 +2734,27 @@
       <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>19</v>
+      <c r="B3" s="123" t="s">
+        <v>18</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="105"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="118"/>
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
@@ -2959,30 +2982,30 @@
       <c r="IK3" s="32"/>
     </row>
     <row r="4" spans="1:246" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>27</v>
+      <c r="B4" s="123" t="s">
+        <v>26</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="105"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="118"/>
       <c r="U4" s="32"/>
       <c r="V4" s="32"/>
       <c r="W4" s="32"/>
@@ -3210,26 +3233,26 @@
       <c r="IK4" s="32"/>
     </row>
     <row r="5" spans="1:246" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="114"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="119"/>
       <c r="U5" s="32"/>
       <c r="V5" s="32"/>
       <c r="W5" s="32"/>
@@ -3469,14 +3492,14 @@
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="159"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
@@ -3724,15 +3747,15 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -3959,21 +3982,21 @@
       <c r="IJ7" s="32"/>
       <c r="IK7" s="32"/>
     </row>
-    <row r="8" spans="1:246" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:246" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="30"/>
@@ -3981,15 +4004,15 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="126"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
       <c r="U8" s="27"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
@@ -4230,30 +4253,30 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="122"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="79"/>
     </row>
     <row r="10" spans="1:246" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="29"/>
@@ -4261,15 +4284,15 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
@@ -4509,46 +4532,46 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="128"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:246" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
-        <v>20</v>
+      <c r="A12" s="132" t="s">
+        <v>19</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>21</v>
+      <c r="B12" s="134" t="s">
+        <v>31</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>22</v>
+      <c r="D12" s="134" t="s">
+        <v>41</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>35</v>
+      <c r="E12" s="135" t="s">
+        <v>32</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="133"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="86"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
@@ -4775,26 +4798,26 @@
       <c r="IJ12" s="26"/>
     </row>
     <row r="13" spans="1:246" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="138"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="87"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
@@ -5033,36 +5056,36 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="141"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
     </row>
     <row r="15" spans="1:246" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="142"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="163"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
@@ -5289,26 +5312,26 @@
       <c r="IJ15" s="26"/>
     </row>
     <row r="16" spans="1:246" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="143"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="164"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
@@ -5547,36 +5570,36 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="141"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
     </row>
     <row r="18" spans="1:244" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="142"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="163"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
@@ -5803,26 +5826,26 @@
       <c r="IJ18" s="26"/>
     </row>
     <row r="19" spans="1:244" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="143"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="164"/>
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
@@ -6061,14 +6084,14 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="141"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
     </row>
     <row r="21" spans="1:244" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
@@ -6082,15 +6105,15 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="115"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="72"/>
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
@@ -6329,36 +6352,36 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="141"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
     </row>
     <row r="23" spans="1:244" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="151"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="159"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -6585,26 +6608,26 @@
       <c r="IJ23" s="26"/>
     </row>
     <row r="24" spans="1:244" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="152"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="160"/>
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
@@ -6843,14 +6866,14 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="141"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
     </row>
     <row r="26" spans="1:244" ht="76.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
@@ -6864,15 +6887,15 @@
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="115"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="72"/>
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
@@ -7111,14 +7134,14 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="156"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="102">
@@ -7137,6 +7160,15 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
@@ -7158,9 +7190,6 @@
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -7173,8 +7202,6 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="R12:R13"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -7184,10 +7211,6 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="F12:F13"/>
@@ -7197,8 +7220,6 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="A12:A13"/>
@@ -7208,10 +7229,9 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="L2:L5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="T2:T5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E5"/>
     <mergeCell ref="F1:K1"/>
@@ -7221,9 +7241,12 @@
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="K2:K5"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:S10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
@@ -7261,13 +7284,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
@@ -7276,147 +7301,133 @@
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>18</v>
+      <c r="B1" s="120" t="s">
+        <v>17</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="109" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="113"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>26</v>
+      <c r="B2" s="123" t="s">
+        <v>33</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="117"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>19</v>
+      <c r="B3" s="123" t="s">
+        <v>18</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="105"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="118"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>43</v>
+      <c r="B4" s="123" t="s">
+        <v>34</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="105"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="114"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
@@ -7431,14 +7442,14 @@
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="159"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
@@ -7462,31 +7473,31 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
     </row>
     <row r="8" spans="1:20" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="30"/>
@@ -7494,15 +7505,15 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="126"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
@@ -7517,30 +7528,30 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="122"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="79"/>
     </row>
     <row r="10" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>34</v>
+      <c r="E10" s="106" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="29"/>
@@ -7548,15 +7559,15 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
@@ -7571,68 +7582,58 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="128"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="133"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="86"/>
     </row>
     <row r="13" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="138"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="87"/>
     </row>
     <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -7647,58 +7648,58 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="141"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="142"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="163"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="143"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="164"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -7713,58 +7714,58 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="141"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="142"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="163"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="143"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="164"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -7779,14 +7780,14 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="141"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
@@ -7800,15 +7801,15 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="115"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="72"/>
     </row>
     <row r="22" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
@@ -7823,58 +7824,58 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="141"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="151"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="159"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="152"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="160"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -7889,14 +7890,14 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="141"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
     </row>
     <row r="26" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
@@ -7910,15 +7911,15 @@
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="115"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="72"/>
     </row>
     <row r="27" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
@@ -7933,14 +7934,799 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="156"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="102">
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N10:S10 H10">
+    <cfRule type="cellIs" priority="5" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" priority="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="113"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="117"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="118"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="118"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="131"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="119"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+    </row>
+    <row r="8" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="79"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="107"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="108"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="132"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="86"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="87"/>
+    </row>
+    <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="132"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="163"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="164"/>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="153"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="163"/>
+    </row>
+    <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="153"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="164"/>
+    </row>
+    <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
+    </row>
+    <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="72"/>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="153"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="159"/>
+    </row>
+    <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="153"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="160"/>
+    </row>
+    <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
+    </row>
+    <row r="26" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="72"/>
+    </row>
+    <row r="27" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="102">

--- a/teste/Caso de Teste Registrar Entrada.xlsx
+++ b/teste/Caso de Teste Registrar Entrada.xlsx
@@ -1214,6 +1214,129 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,12 +1373,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1264,123 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2221,33 +2221,33 @@
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="71"/>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="154"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
       <c r="W1" s="32"/>
@@ -2477,33 +2477,33 @@
       <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="124" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="128" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="128" t="s">
+      <c r="O2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="117"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="32"/>
       <c r="V2" s="32"/>
       <c r="W2" s="32"/>
@@ -2734,27 +2734,27 @@
       <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="118"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="159"/>
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
@@ -2982,30 +2982,30 @@
       <c r="IK3" s="32"/>
     </row>
     <row r="4" spans="1:246" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="118"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="159"/>
       <c r="U4" s="32"/>
       <c r="V4" s="32"/>
       <c r="W4" s="32"/>
@@ -3233,26 +3233,26 @@
       <c r="IK4" s="32"/>
     </row>
     <row r="5" spans="1:246" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="119"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="160"/>
       <c r="U5" s="32"/>
       <c r="V5" s="32"/>
       <c r="W5" s="32"/>
@@ -4542,35 +4542,35 @@
       <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:246" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="161"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="86"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
@@ -4798,25 +4798,25 @@
       <c r="IJ12" s="26"/>
     </row>
     <row r="13" spans="1:246" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="162"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="114"/>
       <c r="T13" s="87"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
@@ -5066,26 +5066,26 @@
       <c r="T14" s="90"/>
     </row>
     <row r="15" spans="1:246" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="163"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="115"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
@@ -5312,26 +5312,26 @@
       <c r="IJ15" s="26"/>
     </row>
     <row r="16" spans="1:246" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="164"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="116"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
@@ -5580,26 +5580,26 @@
       <c r="T17" s="90"/>
     </row>
     <row r="18" spans="1:244" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="163"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="115"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
@@ -5826,26 +5826,26 @@
       <c r="IJ18" s="26"/>
     </row>
     <row r="19" spans="1:244" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="164"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="116"/>
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
@@ -6362,26 +6362,26 @@
       <c r="T22" s="90"/>
     </row>
     <row r="23" spans="1:244" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="159"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="111"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
@@ -6608,26 +6608,26 @@
       <c r="IJ23" s="26"/>
     </row>
     <row r="24" spans="1:244" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="160"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="112"/>
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
@@ -7145,6 +7145,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="T23:T24"/>
     <mergeCell ref="S18:S19"/>
     <mergeCell ref="T18:T19"/>
@@ -7169,84 +7247,6 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:O13"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:S10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
@@ -7301,133 +7301,133 @@
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="71"/>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="154"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="117"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="158"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="118"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="159"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="118"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="159"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="119"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="160"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
@@ -7592,47 +7592,47 @@
       <c r="T11" s="85"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="161"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="86"/>
     </row>
     <row r="13" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="162"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="114"/>
       <c r="T13" s="87"/>
     </row>
     <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7658,48 +7658,48 @@
       <c r="T14" s="90"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="163"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="115"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="164"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="116"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -7724,48 +7724,48 @@
       <c r="T17" s="90"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="153"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="163"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="115"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="164"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="116"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -7834,48 +7834,48 @@
       <c r="T22" s="90"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="159"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="111"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="160"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="112"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -7945,35 +7945,55 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="P15:P16"/>
@@ -7998,55 +8018,35 @@
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:S10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
@@ -8096,133 +8096,133 @@
       <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="71"/>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="154"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="117"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="158"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="118"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="159"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="118"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="159"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="119"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="160"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
@@ -8377,47 +8377,47 @@
       <c r="T11" s="108"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="132"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="161"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="86"/>
     </row>
     <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="162"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="114"/>
       <c r="T13" s="87"/>
     </row>
     <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8443,48 +8443,48 @@
       <c r="T14" s="90"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="132"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="163"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="115"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="164"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="116"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -8509,48 +8509,48 @@
       <c r="T17" s="90"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="153"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="163"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="115"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="164"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="116"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -8619,48 +8619,48 @@
       <c r="T22" s="90"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="159"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="111"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="153"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="160"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="112"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -8730,57 +8730,33 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -8805,33 +8781,57 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:S10 H10">
     <cfRule type="cellIs" priority="5" operator="equal">
